--- a/biology/Zoologie/Calicosama/Calicosama.xlsx
+++ b/biology/Zoologie/Calicosama/Calicosama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calicosama est un genre d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Calicosama leur a été donné par Jason Piers Wilton Hall et Harvey en 2001.
 Ils résident en Amérique.
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calicosama lilina (Butler, 1870); présent au Mexique, à Panama, à Trinité-et-Tobago, au Venezuela et au Pérou.
 Calicosama robbinsi Hall &amp; Harvey, 2001; présent à Panama.</t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hall &amp; Harvey, 2001 : A reassessment of Calociasma with the description of a new genus and a new species (Lepidoptera: Riodinidae: Nymphidiini). Journal of the New York Entomological Society, vol. 109, n. 2, p. 196-205.</t>
         </is>
